--- a/db.xlsx
+++ b/db.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Total" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Main" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="BankHistory" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -41,6 +41,36 @@
     <t xml:space="preserve">Total</t>
   </si>
   <si>
+    <t xml:space="preserve">C.Card Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.Card Original Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.Card Replace Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.Card Replace Leftover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/06/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">something</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eat out side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/07/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/06/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/06/20</t>
+  </si>
+  <si>
     <t xml:space="preserve">01/07/20</t>
   </si>
   <si>
@@ -50,33 +80,30 @@
     <t xml:space="preserve">Salary</t>
   </si>
   <si>
-    <t xml:space="preserve">Yoni’s Salary</t>
+    <t xml:space="preserve">My Salary</t>
   </si>
   <si>
     <t xml:space="preserve">work02</t>
   </si>
   <si>
-    <t xml:space="preserve">Shiri’s Salary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/07/20</t>
+    <t xml:space="preserve">Other Salary</t>
   </si>
   <si>
     <t xml:space="preserve">credit card</t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
+    <t xml:space="preserve">Credit Card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partial</t>
   </si>
   <si>
     <t xml:space="preserve">04/07/20</t>
   </si>
   <si>
-    <t xml:space="preserve">something</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eat out side</t>
-  </si>
-  <si>
     <t xml:space="preserve">05/07/20</t>
   </si>
   <si>
@@ -95,7 +122,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">Bank History</t>
+    <t xml:space="preserve">01/05/20</t>
   </si>
 </sst>
 </file>
@@ -106,12 +133,13 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -134,11 +162,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,20 +207,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -217,17 +245,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -249,132 +283,271 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="3" t="n">
-        <v>1000</v>
+        <v>-500</v>
       </c>
       <c r="F2" s="3" t="n">
-        <f aca="false">E2+Total!B1</f>
-        <v>2000</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+        <v>500</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>8888</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <f aca="false">F2+E3</f>
-        <v>3000</v>
-      </c>
+        <v>-1000</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>-500</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>9999</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="3" t="n">
+        <v>-500</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>9999</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>-200</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <f aca="false">F3+E4</f>
-        <v>2800</v>
-      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <f aca="false">F4+E5</f>
-        <v>1600</v>
-      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>-500</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <f aca="false">F5+E6</f>
-        <v>1100</v>
-      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>9999</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>-1500</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>8888</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>-600</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3" t="n">
+        <v>-1200</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>-800</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3" t="n">
+        <v>-500</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>-1300</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="3" t="n">
         <v>-200</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <f aca="false">F6+E7</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="0" t="s">
-        <v>23</v>
+      <c r="F11" s="3" t="n">
+        <v>-1500</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -393,19 +566,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="0" t="n">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
